--- a/shared/ojb-resources-common/src/main/resources/ssp/Custody_Query_Results/artifacts/service_model/information_model/IEPD/documentation/Custody_Query_Results-Mapping.xlsx
+++ b/shared/ojb-resources-common/src/main/resources/ssp/Custody_Query_Results/artifacts/service_model/information_model/IEPD/documentation/Custody_Query_Results-Mapping.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3280" yWindow="720" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="200" yWindow="0" windowWidth="25600" windowHeight="15040" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Custody Query Results Mappin" sheetId="1" r:id="rId1"/>
@@ -399,9 +399,6 @@
     <t>/cq-res-doc:CustodyQueryResults/cq-res-ext:Custody/j:Detention[@structures:id=/cq-res-doc:CustodyQueryResults/cq-res-ext:Custody/j:ActivityChargeAssociation/nc:Activity/@structures:ref]/br-ext:DetentiontImmigrationHoldIndicator</t>
   </si>
   <si>
-    <t>/cq-res-doc:CustodyQueryResults/cq-res-ext:Custody/j:Detention[@structures:id=/cq-res-doc:CustodyQueryResults/cq-res-ext:Custody/j:ActivityChargeAssociation/nc:Activity/@structures:ref]/j:SupervisionAugmentation/j:SupervisionReleaseDate/nc:Date</t>
-  </si>
-  <si>
     <t>/cq-res-doc:CustodyQueryResults/cq-res-ext:Custody/j:Detention[@structures:id=/cq-res-doc:CustodyQueryResults/cq-res-ext:Custody/j:ActivityChargeAssociation/nc:Activity/@structures:ref]/j:SupervisionAugmentation/j:SupervisionAreaIdentification/nc:IdentificationID</t>
   </si>
   <si>
@@ -418,13 +415,16 @@
   </si>
   <si>
     <t>/cq-res-doc:CustodyQueryResults/cq-res-ext:Custody/nc:Person[@structures:id=/cq-res-doc:CustodyQueryResults/cq-res-ext:Custody/j:Booking/j:BookingSubject/nc:RoleOfPerson/@structures:ref]/nc:PersonDigitalImage/nc:Base64BinaryObject</t>
+  </si>
+  <si>
+    <t>Don't Use</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -508,8 +508,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -528,6 +535,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1189,7 +1202,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1265,6 +1278,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="649">
@@ -2248,15 +2273,16 @@
   <dimension ref="A1:M376"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14.1640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="21" style="4" customWidth="1"/>
-    <col min="3" max="4" width="27.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" style="4" customWidth="1"/>
     <col min="5" max="5" width="84.83203125" style="4" customWidth="1"/>
     <col min="6" max="16384" width="10.83203125" style="4"/>
   </cols>
@@ -2297,7 +2323,7 @@
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2310,7 +2336,7 @@
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="2" customFormat="1">
@@ -2594,7 +2620,7 @@
       </c>
       <c r="D26" s="16"/>
       <c r="E26" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -2717,12 +2743,12 @@
     <row r="35" spans="1:12" s="2" customFormat="1" ht="42">
       <c r="A35" s="7"/>
       <c r="B35" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>38</v>
@@ -2848,17 +2874,17 @@
         <v>125</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="60">
-      <c r="A44" s="16"/>
-      <c r="B44" s="15" t="s">
+    <row r="44" spans="1:12">
+      <c r="A44" s="26"/>
+      <c r="B44" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="D44" s="2"/>
-      <c r="E44" s="17" t="s">
-        <v>126</v>
+      <c r="D44" s="28"/>
+      <c r="E44" s="29" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="56">
@@ -2871,7 +2897,7 @@
       </c>
       <c r="D45" s="14"/>
       <c r="E45" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="30">
